--- a/Homework 12/Product Backlog.xlsx
+++ b/Homework 12/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atafoabure/Desktop/Repositories/1325-repository/Homework 11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atafoabure/Desktop/Repositories/1325-repository/Homework 12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E2153613-382C-D348-9734-665EBD34AA53}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5831AD07-EB99-2A49-A59A-DB453F94C922}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +649,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -677,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -685,6 +692,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7183,8 +7192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8005,83 +8014,86 @@
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40">
+      <c r="B40" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="8">
         <v>5</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" s="8"/>
+      <c r="F40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41">
+      <c r="B41" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="8">
         <v>5</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" s="8"/>
+      <c r="F41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42">
+      <c r="B42" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="8">
         <v>5</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" s="8"/>
+      <c r="F42" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10279,7 +10291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>

--- a/Homework 12/Product Backlog.xlsx
+++ b/Homework 12/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atafoabure/Desktop/Repositories/1325-repository/Homework 12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5831AD07-EB99-2A49-A59A-DB453F94C922}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4EBE2013-6796-544E-8462-65B795DE31B6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="208">
   <si>
     <t>Product Name:</t>
   </si>
@@ -624,6 +624,36 @@
   </si>
   <si>
     <t>Test Menu bar</t>
+  </si>
+  <si>
+    <t>Allow users to see  current stock levels</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Implememt save functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Save Functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Load Functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Load Functionality </t>
+  </si>
+  <si>
+    <t>Zip up and deliver sprint #5 (UML, Code, and spreadsheet)</t>
+  </si>
+  <si>
+    <t>Zip up and deliver sprint #4 (UML, Code, and spreadsheet)</t>
+  </si>
+  <si>
+    <t>Zip up and deliver sprint #3 (UML, Code, and spreadsheet)</t>
+  </si>
+  <si>
+    <t>Zip up and deliver sprint #2 (UML, Code, and spreadsheet)</t>
   </si>
 </sst>
 </file>
@@ -3030,28 +3060,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7192,7 +7222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A40" sqref="A40:J42"/>
     </sheetView>
   </sheetViews>
@@ -9133,8 +9163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:H48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="113" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10004,7 +10034,7 @@
         <v>141</v>
       </c>
       <c r="F48" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="G48" t="s">
         <v>157</v>
@@ -10025,7 +10055,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10271,7 +10301,7 @@
         <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
         <v>157</v>
@@ -10292,7 +10322,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10430,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -10454,7 +10484,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -10478,7 +10508,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -10502,7 +10532,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -10526,7 +10556,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -10550,7 +10580,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -10574,7 +10604,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -10598,7 +10628,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -10622,7 +10652,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -10646,7 +10676,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -10670,7 +10700,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -10694,7 +10724,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -10717,7 +10747,7 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -10752,7 +10782,7 @@
         <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="G31" t="s">
         <v>157</v>
@@ -10763,21 +10793,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -10810,7 +10843,7 @@
       </c>
       <c r="B5">
         <f>COUNT(A15:A1000)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10819,7 +10852,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B12" si="0">B5</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10828,7 +10861,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10837,7 +10870,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10846,7 +10879,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10855,7 +10888,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10864,7 +10897,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10873,7 +10906,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -10900,6 +10933,176 @@
       </c>
       <c r="H17" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <f>A18+1</f>
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <f t="shared" ref="A20:A24" si="1">A19+1</f>
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Homework 12/Product Backlog.xlsx
+++ b/Homework 12/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atafoabure/Desktop/Repositories/1325-repository/Homework 12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4EBE2013-6796-544E-8462-65B795DE31B6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D019BDE-7359-2A49-9427-7171F7221743}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -660,7 +660,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,13 +679,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -722,8 +715,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,7 +890,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,10 +3071,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7222,8 +7215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:J42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7393,15 +7386,15 @@
       </c>
       <c r="B13">
         <f>C12-D13</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4">
         <f>COUNT(B21:B108)</f>
         <v>28</v>
       </c>
       <c r="D13" s="4">
-        <f>D12</f>
-        <v>19</v>
+        <f>D12+3</f>
+        <v>22</v>
       </c>
       <c r="E13" s="6">
         <v>43219</v>
@@ -8019,7 +8012,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="D39" s="4">
         <v>4</v>
@@ -8049,7 +8042,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="D40" s="8">
         <v>5</v>
@@ -9163,7 +9156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="113" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="113" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -10802,8 +10795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10896,8 +10889,8 @@
         <v>49</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>B10-1</f>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10906,7 +10899,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -10955,7 +10948,7 @@
         <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -11075,7 +11068,7 @@
         <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -11099,7 +11092,7 @@
         <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
         <v>178</v>

--- a/Homework 12/Product Backlog.xlsx
+++ b/Homework 12/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atafoabure/Desktop/Repositories/1325-repository/Homework 12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D019BDE-7359-2A49-9427-7171F7221743}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0F49782E-543B-E64A-A9D0-F1680D81B9DE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -3074,7 +3074,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7215,8 +7215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8070,7 +8070,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="D41" s="8">
         <v>5</v>
@@ -8098,7 +8098,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="D42" s="8">
         <v>5</v>
@@ -10795,8 +10795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10898,8 +10898,8 @@
         <v>50</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>B11-2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -10972,7 +10972,7 @@
         <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -11068,7 +11068,7 @@
         <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:8">

--- a/Homework 12/Product Backlog.xlsx
+++ b/Homework 12/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atafoabure/Desktop/Repositories/1325-repository/Homework 12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0F49782E-543B-E64A-A9D0-F1680D81B9DE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C55D9AD-60C1-2F44-A496-F6DC3B9C5094}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -3074,7 +3074,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7215,7 +7215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -10795,8 +10795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10898,8 +10898,8 @@
         <v>50</v>
       </c>
       <c r="B12" s="1">
-        <f>B11-2</f>
-        <v>4</v>
+        <f>B11-3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -10996,7 +10996,7 @@
         <v>201</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:8">

--- a/Homework 12/Product Backlog.xlsx
+++ b/Homework 12/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atafoabure/Desktop/Repositories/1325-repository/Homework 12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C55D9AD-60C1-2F44-A496-F6DC3B9C5094}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{379F2F41-664F-4A49-80C2-9263497C1128}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37680" yWindow="3420" windowWidth="28800" windowHeight="16620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -3074,7 +3074,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7215,8 +7215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10796,7 +10796,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10898,8 +10898,8 @@
         <v>50</v>
       </c>
       <c r="B12" s="1">
-        <f>B11-3</f>
-        <v>3</v>
+        <f>B11-6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -11020,7 +11020,7 @@
         <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -11092,7 +11092,7 @@
         <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="H24" t="s">
         <v>178</v>
